--- a/data/04.abril/listado_abril_con_pdf.xlsx
+++ b/data/04.abril/listado_abril_con_pdf.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="nxBkYtTfmImG+wkyXrF0xRZ1Y/qO8VVZ6AaXy8v2Xlg="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="2w1TUN9iP6aIAVnZvzK5k0LQwvjqWR304iTs0ebi4GU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="450">
   <si>
     <t>NºOrden</t>
   </si>
@@ -116,6 +116,9 @@
     <t xml:space="preserve">       671</t>
   </si>
   <si>
+    <t>GALPGEST 2000002674.pdf</t>
+  </si>
+  <si>
     <t>2000002674</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
     <t>0</t>
   </si>
   <si>
+    <t>JOYLU SPORT - 21012230 (contabilizada 31.12.21).pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">  21012230</t>
   </si>
   <si>
@@ -161,6 +167,9 @@
     <t xml:space="preserve">       810</t>
   </si>
   <si>
+    <t>TIPSA FACTURA 2022015015.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 22/015015</t>
   </si>
   <si>
@@ -173,12 +182,18 @@
     <t>MAAN ENVIOS, S.L.</t>
   </si>
   <si>
+    <t>CALZADOS ROCKPORT 06130000000299.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">       299</t>
   </si>
   <si>
     <t>CALZADOS ROCKPORT, S.L.</t>
   </si>
   <si>
+    <t>AMAZON AEU-SIM-INV-ES-2022-2875821.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">   2875821</t>
   </si>
   <si>
@@ -209,6 +224,9 @@
     <t>AGUSTIN VILAPLANA S.L.</t>
   </si>
   <si>
+    <t>ACCORINVEST SPAIN 285272.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">    285272</t>
   </si>
   <si>
@@ -563,6 +581,9 @@
     <t xml:space="preserve">  44223509</t>
   </si>
   <si>
+    <t>RESTAURANTE LA FAYONA.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">    117/22</t>
   </si>
   <si>
@@ -713,6 +734,9 @@
     <t>13/04</t>
   </si>
   <si>
+    <t>SECANETA 20220413_1769.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">   2201769</t>
   </si>
   <si>
@@ -827,6 +851,9 @@
     <t>PF CONCEPT SPAIN, S.A.U.</t>
   </si>
   <si>
+    <t>AYAFUEL ATTITUDE-ABILITI 22TCM00374.pdf</t>
+  </si>
+  <si>
     <t>22TCM00374</t>
   </si>
   <si>
@@ -1007,6 +1034,9 @@
     <t>DE814978904</t>
   </si>
   <si>
+    <t>TED GIFTED 0768-04-22-WDTS.pdf</t>
+  </si>
+  <si>
     <t>0768/04/22</t>
   </si>
   <si>
@@ -1094,6 +1124,9 @@
     <t>4100099457</t>
   </si>
   <si>
+    <t>TED GIFTED 0829 04 22 WDTS.pdf</t>
+  </si>
+  <si>
     <t>0829/04/22</t>
   </si>
   <si>
@@ -1283,7 +1316,13 @@
     <t>2204127393</t>
   </si>
   <si>
+    <t>TIPSA FACTURA 2022015629.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 22/015629</t>
+  </si>
+  <si>
+    <t>TIPSA FACTURA 2022015630.pdf</t>
   </si>
   <si>
     <t xml:space="preserve"> 22/015630</t>
@@ -1662,7 +1701,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="8.29"/>
-    <col customWidth="1" min="2" max="2" width="63.0"/>
+    <col customWidth="1" min="2" max="2" width="47.71"/>
     <col customWidth="1" min="3" max="3" width="12.0"/>
     <col customWidth="1" min="4" max="4" width="12.14"/>
     <col customWidth="1" min="5" max="5" width="6.43"/>
@@ -1718,7 +1757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" hidden="1">
+    <row r="2">
       <c r="A2" s="4">
         <v>412.0</v>
       </c>
@@ -1759,7 +1798,7 @@
         <v>77.52</v>
       </c>
     </row>
-    <row r="3" hidden="1">
+    <row r="3">
       <c r="A3" s="4">
         <v>413.0</v>
       </c>
@@ -1800,7 +1839,7 @@
         <v>140.74</v>
       </c>
     </row>
-    <row r="4" hidden="1">
+    <row r="4">
       <c r="A4" s="4">
         <v>414.0</v>
       </c>
@@ -1841,7 +1880,7 @@
         <v>188.52</v>
       </c>
     </row>
-    <row r="5" hidden="1">
+    <row r="5">
       <c r="A5" s="4">
         <v>415.0</v>
       </c>
@@ -1886,20 +1925,23 @@
       <c r="A6" s="4">
         <v>416.0</v>
       </c>
+      <c r="B6" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="C6" s="4">
         <v>1656.0</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I6" s="12">
         <v>0.24</v>
@@ -1921,26 +1963,29 @@
       <c r="A7" s="5">
         <v>416.0</v>
       </c>
+      <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="C7" s="4">
         <v>1656.0</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I7" s="12">
         <v>11.49</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="12">
         <v>1.15</v>
@@ -1952,30 +1997,30 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="8" hidden="1">
+    <row r="8">
       <c r="A8" s="4">
         <v>417.0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4">
         <v>1667.0</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I8" s="12">
         <v>30.58</v>
@@ -1993,36 +2038,36 @@
         <v>48.99</v>
       </c>
     </row>
-    <row r="9" hidden="1">
+    <row r="9">
       <c r="A9" s="5">
         <v>417.0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="4">
         <v>1667.0</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I9" s="12">
         <v>11.99</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9" s="12">
         <v>0.0</v>
@@ -2038,23 +2083,26 @@
       <c r="A10" s="4">
         <v>418.0</v>
       </c>
+      <c r="B10" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="C10" s="4">
         <v>1867.0</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I10" s="12">
         <v>19.9</v>
@@ -2072,18 +2120,18 @@
         <v>24.08</v>
       </c>
     </row>
-    <row r="11" hidden="1">
+    <row r="11">
       <c r="A11" s="4">
         <v>419.0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11" s="4">
         <v>1970.0</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>15</v>
@@ -2117,29 +2165,32 @@
       <c r="A12" s="4">
         <v>420.0</v>
       </c>
+      <c r="B12" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C12" s="4">
         <v>1973.0</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I12" s="12">
         <v>51.59</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K12" s="12">
         <v>0.0</v>
@@ -2155,20 +2206,23 @@
       <c r="A13" s="4">
         <v>421.0</v>
       </c>
+      <c r="B13" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="C13" s="4">
         <v>2122.0</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I13" s="12">
         <v>123.72</v>
@@ -2190,23 +2244,26 @@
       <c r="A14" s="4">
         <v>422.0</v>
       </c>
+      <c r="B14" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="C14" s="4">
         <v>2965.0</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I14" s="12">
         <v>29.75</v>
@@ -2224,30 +2281,30 @@
         <v>36.0</v>
       </c>
     </row>
-    <row r="15" ht="15.75" hidden="1" customHeight="1">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>423.0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C15" s="4">
         <v>1408.0</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I15" s="12">
         <v>79.0</v>
@@ -2269,26 +2326,29 @@
       <c r="A16" s="4">
         <v>424.0</v>
       </c>
+      <c r="B16" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="C16" s="4">
         <v>1404.0</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I16" s="12">
         <v>225.85</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K16" s="12">
         <v>22.59</v>
@@ -2300,30 +2360,30 @@
         <v>248.44</v>
       </c>
     </row>
-    <row r="17" ht="15.75" hidden="1" customHeight="1">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="4">
         <v>425.0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C17" s="4">
         <v>1416.0</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I17" s="12">
         <v>238.56</v>
@@ -2341,21 +2401,21 @@
         <v>288.66</v>
       </c>
     </row>
-    <row r="18" ht="15.75" hidden="1" customHeight="1">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="4">
         <v>426.0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C18" s="4">
         <v>1465.0</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>22</v>
@@ -2382,33 +2442,33 @@
         <v>374.11</v>
       </c>
     </row>
-    <row r="19" ht="15.75" hidden="1" customHeight="1">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="4">
         <v>427.0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C19" s="4">
         <v>1463.0</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I19" s="12">
         <v>8.0</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="12">
         <v>0.8</v>
@@ -2420,30 +2480,30 @@
         <v>8.8</v>
       </c>
     </row>
-    <row r="20" ht="15.75" hidden="1" customHeight="1">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="4">
         <v>428.0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C20" s="4">
         <v>1468.0</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I20" s="12">
         <v>506.22</v>
@@ -2461,21 +2521,21 @@
         <v>612.53</v>
       </c>
     </row>
-    <row r="21" ht="15.75" hidden="1" customHeight="1">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="4">
         <v>429.0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C21" s="4">
         <v>1469.0</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>16</v>
@@ -2502,21 +2562,21 @@
         <v>38.07</v>
       </c>
     </row>
-    <row r="22" ht="15.75" hidden="1" customHeight="1">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="4">
         <v>430.0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C22" s="4">
         <v>1547.0</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>22</v>
@@ -2543,30 +2603,30 @@
         <v>346.4</v>
       </c>
     </row>
-    <row r="23" ht="15.75" hidden="1" customHeight="1">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="4">
         <v>431.0</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C23" s="4">
         <v>1549.0</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I23" s="12">
         <v>1918.5</v>
@@ -2584,33 +2644,33 @@
         <v>2321.39</v>
       </c>
     </row>
-    <row r="24" ht="15.75" hidden="1" customHeight="1">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="4">
         <v>432.0</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C24" s="4">
         <v>1614.0</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I24" s="12">
         <v>7.09</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K24" s="12">
         <v>0.71</v>
@@ -2622,21 +2682,21 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="25" ht="15.75" hidden="1" customHeight="1">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4">
         <v>433.0</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C25" s="4">
         <v>1464.0</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>29</v>
@@ -2660,33 +2720,33 @@
         <v>0.0</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" hidden="1" customHeight="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="4">
         <v>434.0</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C26" s="4">
         <v>1467.0</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I26" s="12">
         <v>700.0</v>
@@ -2704,33 +2764,33 @@
         <v>700.0</v>
       </c>
     </row>
-    <row r="27" ht="15.75" hidden="1" customHeight="1">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="4">
         <v>435.0</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C27" s="4">
         <v>1545.0</v>
       </c>
       <c r="D27" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="F27" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I27" s="12">
         <v>8.73</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27" s="12">
         <v>0.87</v>
@@ -2742,30 +2802,30 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="28" ht="15.75" hidden="1" customHeight="1">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="4">
         <v>436.0</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C28" s="4">
         <v>1546.0</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I28" s="12">
         <v>46.19</v>
@@ -2783,30 +2843,30 @@
         <v>55.89</v>
       </c>
     </row>
-    <row r="29" ht="15.75" hidden="1" customHeight="1">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4">
         <v>437.0</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C29" s="4">
         <v>1548.0</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="I29" s="12">
         <v>94.17</v>
@@ -2824,21 +2884,21 @@
         <v>113.94</v>
       </c>
     </row>
-    <row r="30" ht="15.75" hidden="1" customHeight="1">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4">
         <v>438.0</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C30" s="4">
         <v>1564.0</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>22</v>
@@ -2865,30 +2925,30 @@
         <v>667.22</v>
       </c>
     </row>
-    <row r="31" ht="15.75" hidden="1" customHeight="1">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4">
         <v>439.0</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C31" s="4">
         <v>1648.0</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="I31" s="12">
         <v>430.5</v>
@@ -2906,30 +2966,30 @@
         <v>520.91</v>
       </c>
     </row>
-    <row r="32" ht="15.75" hidden="1" customHeight="1">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4">
         <v>440.0</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C32" s="4">
         <v>1668.0</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I32" s="12">
         <v>730.74</v>
@@ -2947,30 +3007,30 @@
         <v>884.2</v>
       </c>
     </row>
-    <row r="33" ht="15.75" hidden="1" customHeight="1">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4">
         <v>441.0</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C33" s="4">
         <v>1865.0</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="I33" s="12">
         <v>63.69</v>
@@ -2988,30 +3048,30 @@
         <v>77.07</v>
       </c>
     </row>
-    <row r="34" ht="15.75" hidden="1" customHeight="1">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4">
         <v>442.0</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C34" s="4">
         <v>1884.0</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="I34" s="12">
         <v>60.81</v>
@@ -3029,30 +3089,30 @@
         <v>73.58</v>
       </c>
     </row>
-    <row r="35" ht="15.75" hidden="1" customHeight="1">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4">
         <v>443.0</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C35" s="4">
         <v>1562.0</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="I35" s="12">
         <v>38.02</v>
@@ -3070,30 +3130,30 @@
         <v>46.0</v>
       </c>
     </row>
-    <row r="36" ht="15.75" hidden="1" customHeight="1">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4">
         <v>444.0</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C36" s="4">
         <v>1563.0</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="I36" s="12">
         <v>585.0</v>
@@ -3111,30 +3171,30 @@
         <v>596.7</v>
       </c>
     </row>
-    <row r="37" ht="15.75" hidden="1" customHeight="1">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4">
         <v>445.0</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C37" s="4">
         <v>1566.0</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="I37" s="12">
         <v>313.0</v>
@@ -3152,30 +3212,30 @@
         <v>378.73</v>
       </c>
     </row>
-    <row r="38" ht="15.75" hidden="1" customHeight="1">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4">
         <v>446.0</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C38" s="4">
         <v>1567.0</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I38" s="12">
         <v>23.14</v>
@@ -3193,21 +3253,21 @@
         <v>28.0</v>
       </c>
     </row>
-    <row r="39" ht="15.75" hidden="1" customHeight="1">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4">
         <v>447.0</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C39" s="4">
         <v>1629.0</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>22</v>
@@ -3234,30 +3294,30 @@
         <v>262.24</v>
       </c>
     </row>
-    <row r="40" ht="15.75" hidden="1" customHeight="1">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4">
         <v>448.0</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C40" s="4">
         <v>1637.0</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I40" s="12">
         <v>235.47</v>
@@ -3275,30 +3335,30 @@
         <v>284.92</v>
       </c>
     </row>
-    <row r="41" ht="15.75" hidden="1" customHeight="1">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4">
         <v>449.0</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C41" s="4">
         <v>1653.0</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="I41" s="12">
         <v>144.0</v>
@@ -3316,33 +3376,33 @@
         <v>174.24</v>
       </c>
     </row>
-    <row r="42" ht="15.75" hidden="1" customHeight="1">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4">
         <v>450.0</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C42" s="4">
         <v>1654.0</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I42" s="12">
         <v>14.18</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K42" s="12">
         <v>1.42</v>
@@ -3354,30 +3414,30 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="43" ht="15.75" hidden="1" customHeight="1">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4">
         <v>451.0</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C43" s="4">
         <v>1928.0</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I43" s="12">
         <v>931.25</v>
@@ -3395,21 +3455,21 @@
         <v>1126.81</v>
       </c>
     </row>
-    <row r="44" ht="15.75" hidden="1" customHeight="1">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="4">
         <v>452.0</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C44" s="4">
         <v>1627.0</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>27</v>
@@ -3436,30 +3496,30 @@
         <v>246.2</v>
       </c>
     </row>
-    <row r="45" ht="15.75" hidden="1" customHeight="1">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="4">
         <v>453.0</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C45" s="4">
         <v>1638.0</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I45" s="12">
         <v>27.68</v>
@@ -3477,30 +3537,30 @@
         <v>33.49</v>
       </c>
     </row>
-    <row r="46" ht="15.75" hidden="1" customHeight="1">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="4">
         <v>454.0</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C46" s="4">
         <v>1639.0</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I46" s="12">
         <v>2035.81</v>
@@ -3518,30 +3578,30 @@
         <v>2463.33</v>
       </c>
     </row>
-    <row r="47" ht="15.75" hidden="1" customHeight="1">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="4">
         <v>455.0</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C47" s="4">
         <v>1646.0</v>
       </c>
       <c r="D47" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="E47" s="11" t="s">
-        <v>172</v>
-      </c>
       <c r="F47" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="I47" s="12">
         <v>71.4</v>
@@ -3559,30 +3619,30 @@
         <v>86.39</v>
       </c>
     </row>
-    <row r="48" ht="15.75" hidden="1" customHeight="1">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="4">
         <v>456.0</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C48" s="4">
         <v>1651.0</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I48" s="12">
         <v>103.9</v>
@@ -3604,26 +3664,29 @@
       <c r="A49" s="4">
         <v>457.0</v>
       </c>
+      <c r="B49" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="C49" s="4">
         <v>1659.0</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I49" s="12">
         <v>139.64</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K49" s="12">
         <v>13.96</v>
@@ -3635,30 +3698,30 @@
         <v>153.6</v>
       </c>
     </row>
-    <row r="50" ht="15.75" hidden="1" customHeight="1">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="4">
         <v>458.0</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C50" s="4">
         <v>1666.0</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="I50" s="12">
         <v>1580.0</v>
@@ -3676,30 +3739,30 @@
         <v>1911.8</v>
       </c>
     </row>
-    <row r="51" ht="15.75" hidden="1" customHeight="1">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="4">
         <v>459.0</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C51" s="4">
         <v>2037.0</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="I51" s="12">
         <v>115.66</v>
@@ -3717,21 +3780,21 @@
         <v>139.95</v>
       </c>
     </row>
-    <row r="52" ht="15.75" hidden="1" customHeight="1">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="4">
         <v>460.0</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C52" s="4">
         <v>2148.0</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>29</v>
@@ -3758,30 +3821,30 @@
         <v>11.48</v>
       </c>
     </row>
-    <row r="53" ht="15.75" hidden="1" customHeight="1">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="4">
         <v>461.0</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C53" s="4">
         <v>1607.0</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I53" s="12">
         <v>546.0</v>
@@ -3799,30 +3862,30 @@
         <v>660.66</v>
       </c>
     </row>
-    <row r="54" ht="15.75" hidden="1" customHeight="1">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="4">
         <v>462.0</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C54" s="4">
         <v>1644.0</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="I54" s="12">
         <v>6516.0</v>
@@ -3840,21 +3903,21 @@
         <v>7884.36</v>
       </c>
     </row>
-    <row r="55" ht="15.75" hidden="1" customHeight="1">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="4">
         <v>463.0</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C55" s="4">
         <v>1649.0</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>16</v>
@@ -3881,30 +3944,30 @@
         <v>43.45</v>
       </c>
     </row>
-    <row r="56" ht="15.75" hidden="1" customHeight="1">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="4">
         <v>464.0</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C56" s="4">
         <v>1864.0</v>
       </c>
       <c r="D56" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="E56" s="11" t="s">
-        <v>200</v>
-      </c>
       <c r="F56" s="4" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="I56" s="12">
         <v>41.31</v>
@@ -3922,30 +3985,30 @@
         <v>49.99</v>
       </c>
     </row>
-    <row r="57" ht="15.75" hidden="1" customHeight="1">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="4">
         <v>465.0</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C57" s="4">
         <v>1969.0</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="I57" s="12">
         <v>625.45</v>
@@ -3963,21 +4026,21 @@
         <v>756.79</v>
       </c>
     </row>
-    <row r="58" ht="15.75" hidden="1" customHeight="1">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="4">
         <v>466.0</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C58" s="4">
         <v>1630.0</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>22</v>
@@ -4004,30 +4067,30 @@
         <v>672.29</v>
       </c>
     </row>
-    <row r="59" ht="15.75" hidden="1" customHeight="1">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="4">
         <v>467.0</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C59" s="4">
         <v>1643.0</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="I59" s="12">
         <v>84.0</v>
@@ -4045,30 +4108,30 @@
         <v>101.64</v>
       </c>
     </row>
-    <row r="60" ht="15.75" hidden="1" customHeight="1">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="4">
         <v>468.0</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C60" s="4">
         <v>1647.0</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="I60" s="12">
         <v>13.43</v>
@@ -4086,21 +4149,21 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="61" ht="15.75" hidden="1" customHeight="1">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="4">
         <v>469.0</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C61" s="4">
         <v>1650.0</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>16</v>
@@ -4127,30 +4190,30 @@
         <v>113.06</v>
       </c>
     </row>
-    <row r="62" ht="15.75" hidden="1" customHeight="1">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="4">
         <v>470.0</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C62" s="4">
         <v>1652.0</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I62" s="12">
         <v>29.3</v>
@@ -4168,21 +4231,21 @@
         <v>35.45</v>
       </c>
     </row>
-    <row r="63" ht="15.75" hidden="1" customHeight="1">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="4">
         <v>471.0</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C63" s="4">
         <v>1631.0</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>22</v>
@@ -4213,23 +4276,26 @@
       <c r="A64" s="4">
         <v>472.0</v>
       </c>
+      <c r="B64" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="C64" s="4">
         <v>1642.0</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="I64" s="12">
         <v>64.52</v>
@@ -4247,30 +4313,30 @@
         <v>78.07</v>
       </c>
     </row>
-    <row r="65" ht="15.75" hidden="1" customHeight="1">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="4">
         <v>473.0</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C65" s="4">
         <v>1645.0</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="I65" s="12">
         <v>221.8</v>
@@ -4288,33 +4354,33 @@
         <v>268.38</v>
       </c>
     </row>
-    <row r="66" ht="15.75" hidden="1" customHeight="1">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="4">
         <v>474.0</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C66" s="4">
         <v>1615.0</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I66" s="12">
         <v>5.64</v>
       </c>
       <c r="J66" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K66" s="12">
         <v>0.56</v>
@@ -4326,30 +4392,30 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="67" ht="15.75" hidden="1" customHeight="1">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="4">
         <v>475.0</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C67" s="4">
         <v>1620.0</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I67" s="12">
         <v>95.9</v>
@@ -4367,30 +4433,30 @@
         <v>116.04</v>
       </c>
     </row>
-    <row r="68" ht="15.75" hidden="1" customHeight="1">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="4">
         <v>476.0</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C68" s="4">
         <v>1628.0</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="I68" s="12">
         <v>819.0</v>
@@ -4408,30 +4474,30 @@
         <v>990.99</v>
       </c>
     </row>
-    <row r="69" ht="15.75" hidden="1" customHeight="1">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="4">
         <v>477.0</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C69" s="4">
         <v>1640.0</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I69" s="12">
         <v>32.83</v>
@@ -4449,33 +4515,33 @@
         <v>39.72</v>
       </c>
     </row>
-    <row r="70" ht="15.75" hidden="1" customHeight="1">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="4">
         <v>478.0</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C70" s="4">
         <v>1616.0</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I70" s="12">
         <v>7.91</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K70" s="12">
         <v>0.79</v>
@@ -4487,30 +4553,30 @@
         <v>8.7</v>
       </c>
     </row>
-    <row r="71" ht="15.75" hidden="1" customHeight="1">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="4">
         <v>479.0</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C71" s="4">
         <v>1621.0</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I71" s="12">
         <v>14.9</v>
@@ -4528,21 +4594,21 @@
         <v>18.03</v>
       </c>
     </row>
-    <row r="72" ht="15.75" hidden="1" customHeight="1">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="4">
         <v>480.0</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C72" s="4">
         <v>1624.0</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>27</v>
@@ -4569,21 +4635,21 @@
         <v>82.52</v>
       </c>
     </row>
-    <row r="73" ht="15.75" hidden="1" customHeight="1">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="4">
         <v>481.0</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C73" s="4">
         <v>1632.0</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>22</v>
@@ -4610,30 +4676,30 @@
         <v>31.24</v>
       </c>
     </row>
-    <row r="74" ht="15.75" hidden="1" customHeight="1">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="4">
         <v>482.0</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C74" s="4">
         <v>1635.0</v>
       </c>
       <c r="D74" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E74" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="E74" s="11" t="s">
-        <v>254</v>
-      </c>
       <c r="F74" s="4" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="I74" s="12">
         <v>190.6</v>
@@ -4651,30 +4717,30 @@
         <v>230.63</v>
       </c>
     </row>
-    <row r="75" ht="15.75" hidden="1" customHeight="1">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="4">
         <v>483.0</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C75" s="4">
         <v>1641.0</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I75" s="12">
         <v>170.51</v>
@@ -4696,20 +4762,23 @@
       <c r="A76" s="4">
         <v>484.0</v>
       </c>
+      <c r="B76" s="5" t="s">
+        <v>277</v>
+      </c>
       <c r="C76" s="4">
         <v>1886.0</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I76" s="12">
         <v>64.16</v>
@@ -4727,33 +4796,33 @@
         <v>77.63</v>
       </c>
     </row>
-    <row r="77" ht="15.75" hidden="1" customHeight="1">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="4">
         <v>485.0</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C77" s="4">
         <v>1617.0</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I77" s="12">
         <v>15.45</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K77" s="12">
         <v>1.55</v>
@@ -4765,21 +4834,21 @@
         <v>17.0</v>
       </c>
     </row>
-    <row r="78" ht="15.75" hidden="1" customHeight="1">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="4">
         <v>486.0</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C78" s="4">
         <v>1625.0</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>27</v>
@@ -4806,21 +4875,21 @@
         <v>63.46</v>
       </c>
     </row>
-    <row r="79" ht="15.75" hidden="1" customHeight="1">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="4">
         <v>487.0</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C79" s="4">
         <v>1633.0</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>22</v>
@@ -4847,30 +4916,30 @@
         <v>399.72</v>
       </c>
     </row>
-    <row r="80" ht="15.75" hidden="1" customHeight="1">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="4">
         <v>488.0</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C80" s="4">
         <v>1634.0</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="I80" s="12">
         <v>56.2</v>
@@ -4888,30 +4957,30 @@
         <v>68.0</v>
       </c>
     </row>
-    <row r="81" ht="15.75" hidden="1" customHeight="1">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="4">
         <v>489.0</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C81" s="4">
         <v>1636.0</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="I81" s="12">
         <v>27.0</v>
@@ -4929,30 +4998,30 @@
         <v>32.67</v>
       </c>
     </row>
-    <row r="82" ht="15.75" hidden="1" customHeight="1">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="4">
         <v>490.0</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C82" s="4">
         <v>1740.0</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="I82" s="12">
         <v>64.79</v>
@@ -4970,30 +5039,30 @@
         <v>78.4</v>
       </c>
     </row>
-    <row r="83" ht="15.75" hidden="1" customHeight="1">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="4">
         <v>491.0</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C83" s="4">
         <v>1606.0</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="I83" s="12">
         <v>112.91</v>
@@ -5011,33 +5080,33 @@
         <v>136.62</v>
       </c>
     </row>
-    <row r="84" ht="15.75" hidden="1" customHeight="1">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="4">
         <v>492.0</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C84" s="4">
         <v>1618.0</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I84" s="12">
         <v>16.09</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K84" s="12">
         <v>1.61</v>
@@ -5049,30 +5118,30 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="85" ht="15.75" hidden="1" customHeight="1">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="4">
         <v>493.0</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C85" s="4">
         <v>1619.0</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="I85" s="12">
         <v>49.55</v>
@@ -5090,21 +5159,21 @@
         <v>59.95</v>
       </c>
     </row>
-    <row r="86" ht="15.75" hidden="1" customHeight="1">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="4">
         <v>494.0</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="C86" s="4">
         <v>1626.0</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>27</v>
@@ -5131,21 +5200,21 @@
         <v>29.28</v>
       </c>
     </row>
-    <row r="87" ht="15.75" hidden="1" customHeight="1">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="4">
         <v>495.0</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C87" s="4">
         <v>1658.0</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>22</v>
@@ -5172,30 +5241,30 @@
         <v>202.8</v>
       </c>
     </row>
-    <row r="88" ht="15.75" hidden="1" customHeight="1">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="4">
         <v>496.0</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C88" s="4">
         <v>1872.0</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="I88" s="12">
         <v>47.39</v>
@@ -5213,21 +5282,21 @@
         <v>57.34</v>
       </c>
     </row>
-    <row r="89" ht="15.75" hidden="1" customHeight="1">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="4">
         <v>497.0</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C89" s="4">
         <v>1655.0</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>27</v>
@@ -5254,30 +5323,30 @@
         <v>259.55</v>
       </c>
     </row>
-    <row r="90" ht="15.75" hidden="1" customHeight="1">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="4">
         <v>498.0</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C90" s="4">
         <v>1665.0</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="I90" s="12">
         <v>234.4</v>
@@ -5295,21 +5364,21 @@
         <v>283.62</v>
       </c>
     </row>
-    <row r="91" ht="15.75" hidden="1" customHeight="1">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="4">
         <v>499.0</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C91" s="4">
         <v>1857.0</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>22</v>
@@ -5336,30 +5405,30 @@
         <v>364.33</v>
       </c>
     </row>
-    <row r="92" ht="15.75" hidden="1" customHeight="1">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="4">
         <v>500.0</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C92" s="4">
         <v>1882.0</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="I92" s="12">
         <v>65.34</v>
@@ -5377,30 +5446,30 @@
         <v>79.06</v>
       </c>
     </row>
-    <row r="93" ht="15.75" hidden="1" customHeight="1">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="4">
         <v>501.0</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="C93" s="4">
         <v>1663.0</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="I93" s="12">
         <v>3.5</v>
@@ -5418,33 +5487,33 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="94" ht="15.75" hidden="1" customHeight="1">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="4">
         <v>502.0</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="C94" s="4">
         <v>1858.0</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I94" s="12">
         <v>15.82</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K94" s="12">
         <v>1.58</v>
@@ -5456,21 +5525,21 @@
         <v>17.4</v>
       </c>
     </row>
-    <row r="95" ht="15.75" hidden="1" customHeight="1">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="4">
         <v>503.0</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C95" s="4">
         <v>1859.0</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>29</v>
@@ -5497,30 +5566,30 @@
         <v>73.21</v>
       </c>
     </row>
-    <row r="96" ht="15.75" hidden="1" customHeight="1">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="4">
         <v>504.0</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C96" s="4">
         <v>1860.0</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="I96" s="12">
         <v>46.9</v>
@@ -5542,23 +5611,26 @@
       <c r="A97" s="4">
         <v>505.0</v>
       </c>
+      <c r="B97" s="5" t="s">
+        <v>338</v>
+      </c>
       <c r="C97" s="4">
         <v>1861.0</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="I97" s="12">
         <v>470.0</v>
@@ -5576,30 +5648,30 @@
         <v>470.0</v>
       </c>
     </row>
-    <row r="98" ht="15.75" hidden="1" customHeight="1">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="4">
         <v>506.0</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C98" s="4">
         <v>1863.0</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I98" s="12">
         <v>62.63</v>
@@ -5617,21 +5689,21 @@
         <v>75.78</v>
       </c>
     </row>
-    <row r="99" ht="15.75" hidden="1" customHeight="1">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="4">
         <v>507.0</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="C99" s="4">
         <v>1873.0</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>22</v>
@@ -5658,30 +5730,30 @@
         <v>131.95</v>
       </c>
     </row>
-    <row r="100" ht="15.75" hidden="1" customHeight="1">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="4">
         <v>508.0</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C100" s="4">
         <v>1879.0</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="I100" s="12">
         <v>109.39</v>
@@ -5699,30 +5771,30 @@
         <v>132.36</v>
       </c>
     </row>
-    <row r="101" ht="15.75" hidden="1" customHeight="1">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="4">
         <v>509.0</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C101" s="4">
         <v>2038.0</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I101" s="12">
         <v>27.0</v>
@@ -5740,36 +5812,36 @@
         <v>117.82</v>
       </c>
     </row>
-    <row r="102" ht="15.75" hidden="1" customHeight="1">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="4">
         <v>509.0</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C102" s="4">
         <v>2038.0</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I102" s="12">
         <v>85.15</v>
       </c>
       <c r="J102" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K102" s="12">
         <v>0.0</v>
@@ -5781,30 +5853,30 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="103" ht="15.75" hidden="1" customHeight="1">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="4">
         <v>510.0</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C103" s="4">
         <v>2039.0</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I103" s="12">
         <v>230.0</v>
@@ -5822,33 +5894,33 @@
         <v>278.3</v>
       </c>
     </row>
-    <row r="104" ht="15.75" hidden="1" customHeight="1">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="4">
         <v>511.0</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C104" s="4">
         <v>1868.0</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I104" s="12">
         <v>8.64</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K104" s="12">
         <v>0.86</v>
@@ -5860,21 +5932,21 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="105" ht="15.75" hidden="1" customHeight="1">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="4">
         <v>512.0</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="C105" s="4">
         <v>1874.0</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>22</v>
@@ -5901,30 +5973,30 @@
         <v>516.23</v>
       </c>
     </row>
-    <row r="106" ht="15.75" hidden="1" customHeight="1">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="4">
         <v>513.0</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="C106" s="4">
         <v>1875.0</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="I106" s="12">
         <v>94.64</v>
@@ -5942,30 +6014,30 @@
         <v>114.51</v>
       </c>
     </row>
-    <row r="107" ht="15.75" hidden="1" customHeight="1">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="4">
         <v>514.0</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C107" s="4">
         <v>1877.0</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="I107" s="12">
         <v>486.0</v>
@@ -5983,30 +6055,30 @@
         <v>588.06</v>
       </c>
     </row>
-    <row r="108" ht="15.75" hidden="1" customHeight="1">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="4">
         <v>515.0</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="C108" s="4">
         <v>1878.0</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="I108" s="12">
         <v>46.9</v>
@@ -6028,23 +6100,26 @@
       <c r="A109" s="4">
         <v>516.0</v>
       </c>
+      <c r="B109" s="5" t="s">
+        <v>368</v>
+      </c>
       <c r="C109" s="4">
         <v>2103.0</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="I109" s="12">
         <v>193.0</v>
@@ -6062,30 +6137,30 @@
         <v>193.0</v>
       </c>
     </row>
-    <row r="110" ht="15.75" hidden="1" customHeight="1">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="4">
         <v>517.0</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="C110" s="4">
         <v>1870.0</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="I110" s="12">
         <v>150.0</v>
@@ -6103,21 +6178,21 @@
         <v>181.5</v>
       </c>
     </row>
-    <row r="111" ht="15.75" hidden="1" customHeight="1">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="4">
         <v>518.0</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="C111" s="4">
         <v>1871.0</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>29</v>
@@ -6144,30 +6219,30 @@
         <v>253.93</v>
       </c>
     </row>
-    <row r="112" ht="15.75" hidden="1" customHeight="1">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="4">
         <v>519.0</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="C112" s="4">
         <v>1908.0</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I112" s="12">
         <v>24.6</v>
@@ -6185,36 +6260,36 @@
         <v>29.77</v>
       </c>
     </row>
-    <row r="113" ht="15.75" hidden="1" customHeight="1">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="4">
         <v>520.0</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="C113" s="4">
         <v>1918.0</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I113" s="12">
         <v>15.35</v>
       </c>
       <c r="J113" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K113" s="12">
         <v>1.54</v>
@@ -6226,21 +6301,21 @@
         <v>16.89</v>
       </c>
     </row>
-    <row r="114" ht="15.75" hidden="1" customHeight="1">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="4">
         <v>521.0</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="C114" s="4">
         <v>1906.0</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>29</v>
@@ -6267,30 +6342,30 @@
         <v>154.4</v>
       </c>
     </row>
-    <row r="115" ht="15.75" hidden="1" customHeight="1">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="4">
         <v>522.0</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="C115" s="4">
         <v>1907.0</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="I115" s="12">
         <v>159.49</v>
@@ -6308,30 +6383,30 @@
         <v>192.98</v>
       </c>
     </row>
-    <row r="116" ht="15.75" hidden="1" customHeight="1">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="4">
         <v>523.0</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="C116" s="4">
         <v>1909.0</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="I116" s="12">
         <v>163.0</v>
@@ -6349,30 +6424,30 @@
         <v>197.23</v>
       </c>
     </row>
-    <row r="117" ht="15.75" hidden="1" customHeight="1">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="4">
         <v>524.0</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C117" s="4">
         <v>1910.0</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I117" s="12">
         <v>69.68</v>
@@ -6390,21 +6465,21 @@
         <v>84.31</v>
       </c>
     </row>
-    <row r="118" ht="15.75" hidden="1" customHeight="1">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="4">
         <v>525.0</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="C118" s="4">
         <v>1927.0</v>
       </c>
       <c r="D118" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="E118" s="11" t="s">
         <v>385</v>
-      </c>
-      <c r="E118" s="11" t="s">
-        <v>374</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>22</v>
@@ -6431,30 +6506,30 @@
         <v>1528.45</v>
       </c>
     </row>
-    <row r="119" ht="15.75" hidden="1" customHeight="1">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="4">
         <v>526.0</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="C119" s="4">
         <v>2099.0</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="I119" s="12">
         <v>136.28</v>
@@ -6472,30 +6547,30 @@
         <v>164.9</v>
       </c>
     </row>
-    <row r="120" ht="15.75" hidden="1" customHeight="1">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="4">
         <v>527.0</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="C120" s="4">
         <v>2285.0</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="I120" s="12">
         <v>60.34</v>
@@ -6513,30 +6588,30 @@
         <v>73.01</v>
       </c>
     </row>
-    <row r="121" ht="15.75" hidden="1" customHeight="1">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="4">
         <v>528.0</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="C121" s="4">
         <v>1924.0</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="I121" s="12">
         <v>50.6</v>
@@ -6554,30 +6629,30 @@
         <v>61.22</v>
       </c>
     </row>
-    <row r="122" ht="15.75" hidden="1" customHeight="1">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="4">
         <v>529.0</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="C122" s="4">
         <v>1929.0</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="I122" s="12">
         <v>2010.74</v>
@@ -6595,30 +6670,30 @@
         <v>2433.0</v>
       </c>
     </row>
-    <row r="123" ht="15.75" hidden="1" customHeight="1">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="4">
         <v>530.0</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="C123" s="4">
         <v>1930.0</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="I123" s="12">
         <v>81.4</v>
@@ -6636,30 +6711,30 @@
         <v>98.49</v>
       </c>
     </row>
-    <row r="124" ht="15.75" hidden="1" customHeight="1">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="4">
         <v>531.0</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="C124" s="4">
         <v>2035.0</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="I124" s="12">
         <v>3448.8</v>
@@ -6677,30 +6752,30 @@
         <v>3448.8</v>
       </c>
     </row>
-    <row r="125" ht="15.75" hidden="1" customHeight="1">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="4">
         <v>532.0</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="C125" s="4">
         <v>2098.0</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="I125" s="12">
         <v>1023.75</v>
@@ -6718,30 +6793,30 @@
         <v>1238.74</v>
       </c>
     </row>
-    <row r="126" ht="15.75" hidden="1" customHeight="1">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="4">
         <v>533.0</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="C126" s="4">
         <v>1926.0</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="I126" s="12">
         <v>62.4</v>
@@ -6759,30 +6834,30 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="127" ht="15.75" hidden="1" customHeight="1">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="4">
         <v>534.0</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C127" s="4">
         <v>2030.0</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="I127" s="12">
         <v>11.61</v>
@@ -6800,36 +6875,36 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="128" ht="15.75" hidden="1" customHeight="1">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="4">
         <v>534.0</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C128" s="4">
         <v>2030.0</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="I128" s="12">
         <v>9.65</v>
       </c>
       <c r="J128" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K128" s="12">
         <v>0.0</v>
@@ -6841,30 +6916,30 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="129" ht="15.75" hidden="1" customHeight="1">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="4">
         <v>535.0</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="C129" s="4">
         <v>2032.0</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I129" s="12">
         <v>1586.0</v>
@@ -6886,23 +6961,26 @@
       <c r="A130" s="4">
         <v>536.0</v>
       </c>
+      <c r="B130" s="5" t="s">
+        <v>432</v>
+      </c>
       <c r="C130" s="4">
         <v>2033.0</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I130" s="12">
         <v>783.13</v>
@@ -6924,29 +7002,32 @@
       <c r="A131" s="4">
         <v>537.0</v>
       </c>
+      <c r="B131" s="5" t="s">
+        <v>434</v>
+      </c>
       <c r="C131" s="4">
         <v>2034.0</v>
       </c>
       <c r="D131" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="E131" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="E131" s="11" t="s">
-        <v>411</v>
-      </c>
       <c r="F131" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I131" s="12">
         <v>167.34</v>
       </c>
       <c r="J131" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K131" s="12">
         <v>0.0</v>
@@ -6958,30 +7039,30 @@
         <v>167.34</v>
       </c>
     </row>
-    <row r="132" ht="15.75" hidden="1" customHeight="1">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="4">
         <v>538.0</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="C132" s="4">
         <v>2052.0</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="I132" s="12">
         <v>0.81</v>
@@ -6999,36 +7080,36 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="133" ht="15.75" hidden="1" customHeight="1">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="4">
         <v>538.0</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="C133" s="4">
         <v>2052.0</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="I133" s="12">
         <v>0.68</v>
       </c>
       <c r="J133" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K133" s="12">
         <v>0.0</v>
@@ -7040,30 +7121,30 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="134" ht="15.75" hidden="1" customHeight="1">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="4">
         <v>539.0</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="C134" s="4">
         <v>2100.0</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="I134" s="12">
         <v>1350.14</v>
@@ -7081,30 +7162,30 @@
         <v>1633.67</v>
       </c>
     </row>
-    <row r="135" ht="15.75" hidden="1" customHeight="1">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="4">
         <v>540.0</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="C135" s="4">
         <v>2101.0</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="I135" s="12">
         <v>143.56</v>
@@ -7122,30 +7203,30 @@
         <v>173.71</v>
       </c>
     </row>
-    <row r="136" ht="15.75" hidden="1" customHeight="1">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="4">
         <v>541.0</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="C136" s="4">
         <v>2115.0</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="I136" s="12">
         <v>31.86</v>
@@ -8022,11 +8103,7 @@
     <row r="993" ht="15.75" customHeight="1"/>
     <row r="994" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$Z$136">
-    <filterColumn colId="1">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="$A$1:$Z$136"/>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
